--- a/silver/excel/int_fuel_metrics.xlsx
+++ b/silver/excel/int_fuel_metrics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,271 +477,676 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL4177</t>
+          <t>FL6679</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AC3488</t>
+          <t>AC7432</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>790</v>
+        <v>850</v>
       </c>
       <c r="D2" t="n">
-        <v>2.48</v>
+        <v>2.03</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45778</v>
+        <v>45839</v>
       </c>
       <c r="F2" t="n">
-        <v>2.796</v>
+        <v>3.409</v>
       </c>
       <c r="G2" t="n">
-        <v>5477.92</v>
+        <v>5882.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FL9519</t>
+          <t>FL1976</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AC3488</t>
+          <t>AC7432</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>790</v>
+        <v>850</v>
       </c>
       <c r="D3" t="n">
-        <v>6.1</v>
+        <v>3.68</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="F3" t="n">
-        <v>2.796</v>
+        <v>2.427</v>
       </c>
       <c r="G3" t="n">
-        <v>13473.92</v>
+        <v>7591.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL2825</t>
+          <t>FL4876</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AC3488</t>
+          <t>AC7432</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>790</v>
+        <v>850</v>
       </c>
       <c r="D4" t="n">
-        <v>3.52</v>
+        <v>4.95</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>45809</v>
       </c>
       <c r="F4" t="n">
-        <v>3.054</v>
+        <v>2.427</v>
       </c>
       <c r="G4" t="n">
-        <v>8492.559999999999</v>
+        <v>10211.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL7208</t>
+          <t>FL1198</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AC3488</t>
+          <t>AC7432</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>790</v>
+        <v>850</v>
       </c>
       <c r="D5" t="n">
-        <v>6.39</v>
+        <v>2.03</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="F5" t="n">
-        <v>2.796</v>
+        <v>2.427</v>
       </c>
       <c r="G5" t="n">
-        <v>14114.49</v>
+        <v>4187.79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL6596</t>
+          <t>FL3066</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AC0944</t>
+          <t>AC7432</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1400</v>
+        <v>850</v>
       </c>
       <c r="D6" t="n">
-        <v>7.7</v>
+        <v>2.5</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45748</v>
+        <v>45809</v>
       </c>
       <c r="F6" t="n">
-        <v>3.609</v>
+        <v>2.427</v>
       </c>
       <c r="G6" t="n">
-        <v>38905.02</v>
+        <v>5157.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL5388</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AC1979</t>
+          <t>AC7432</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1350</v>
+        <v>850</v>
       </c>
       <c r="D7" t="n">
-        <v>1.21</v>
+        <v>3.68</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="F7" t="n">
-        <v>2.796</v>
+        <v>2.427</v>
       </c>
       <c r="G7" t="n">
-        <v>4567.27</v>
+        <v>7591.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL4773</t>
+          <t>FL5301</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AC1979</t>
+          <t>AC9250</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="n">
-        <v>4.44</v>
+        <v>2.5</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45748</v>
+        <v>45809</v>
       </c>
       <c r="F8" t="n">
-        <v>3.609</v>
+        <v>2.427</v>
       </c>
       <c r="G8" t="n">
-        <v>21632.35</v>
+        <v>6067.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL7875</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AC9519</t>
+          <t>AC9250</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D9" t="n">
-        <v>3.17</v>
+        <v>4.95</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45748</v>
+        <v>45809</v>
       </c>
       <c r="F9" t="n">
-        <v>3.609</v>
+        <v>2.427</v>
       </c>
       <c r="G9" t="n">
-        <v>5720.27</v>
+        <v>12013.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL3561</t>
+          <t>FL6369</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AC4136</t>
+          <t>AC9250</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>1000</v>
       </c>
       <c r="D10" t="n">
-        <v>2.97</v>
+        <v>3.68</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45748</v>
+        <v>45809</v>
       </c>
       <c r="F10" t="n">
-        <v>3.609</v>
+        <v>2.427</v>
       </c>
       <c r="G10" t="n">
-        <v>10718.73</v>
+        <v>8931.360000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL8734</t>
+          <t>FL7466</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AC4136</t>
+          <t>AC9250</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>1000</v>
       </c>
       <c r="D11" t="n">
-        <v>3.04</v>
+        <v>3.68</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>45809</v>
       </c>
       <c r="F11" t="n">
-        <v>3.054</v>
+        <v>2.427</v>
       </c>
       <c r="G11" t="n">
-        <v>9284.16</v>
+        <v>8931.360000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FL3108</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AC9250</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6067.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FL4736</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AC9250</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3519.15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FL5961</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AC4709</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="G14" t="n">
+        <v>23754.26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FL2734</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AC4709</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="G15" t="n">
+        <v>23754.26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FL1013</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>AC4709</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="G16" t="n">
+        <v>23754.26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FL5705</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AC7421</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>890</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.409</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6159.04</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FL1524</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AC7421</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>890</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7948.91</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FL5421</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AC7421</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>890</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10692.15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FL6133</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>AC7421</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>890</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10692.15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FL8299</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AC7979</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>500</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1759.58</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FL5785</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AC5682</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>790</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.409</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3905.01</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FL5235</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AC5682</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>790</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9490.780000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FL5689</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AC5682</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>790</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3892.18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FL8121</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AC5682</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>790</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2780.13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FL1990</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AC4686</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="G26" t="n">
+        <v>23754.26</v>
       </c>
     </row>
   </sheetData>

--- a/silver/excel/int_fuel_metrics.xlsx
+++ b/silver/excel/int_fuel_metrics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,30 +445,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>flight_day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>aircraft_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>fuel_burn_rate_gph</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>flight_hours</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>price_month_date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>fuel_price_per_gal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>fuel_cost</t>
         </is>
@@ -477,676 +482,751 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL6679</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AC7432</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>850</v>
+          <t>FL4510</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45839</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.409</v>
+        <v>890</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45778</v>
       </c>
       <c r="G2" t="n">
-        <v>5882.23</v>
+        <v>2.269</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7431.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FL1976</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AC7432</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>850</v>
+          <t>FL4406</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.427</v>
+        <v>890</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45748</v>
       </c>
       <c r="G3" t="n">
-        <v>7591.66</v>
+        <v>3.616</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4666.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL4876</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AC7432</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>850</v>
+          <t>FL4226</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="E4" s="2" t="n">
+        <v>890</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>45809</v>
       </c>
-      <c r="F4" t="n">
-        <v>2.427</v>
-      </c>
       <c r="G4" t="n">
-        <v>10211.6</v>
+        <v>3.185</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10431.51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL1198</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AC7432</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>850</v>
+          <t>FL4185</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.427</v>
+        <v>890</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45748</v>
       </c>
       <c r="G5" t="n">
-        <v>4187.79</v>
+        <v>3.616</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11843.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL3066</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AC7432</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>850</v>
+          <t>FL3887</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.427</v>
+        <v>890</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45839</v>
       </c>
       <c r="G6" t="n">
-        <v>5157.38</v>
+        <v>2.885</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5212.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FL5388</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AC7432</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>850</v>
+          <t>FL3838</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45804</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.427</v>
+        <v>890</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45778</v>
       </c>
       <c r="G7" t="n">
-        <v>7591.66</v>
+        <v>2.269</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4099.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL5301</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>AC9250</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
+          <t>FL3457</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45812</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D8" t="n">
+        <v>890</v>
+      </c>
+      <c r="E8" t="n">
         <v>2.5</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="F8" s="2" t="n">
         <v>45809</v>
       </c>
-      <c r="F8" t="n">
-        <v>2.427</v>
-      </c>
       <c r="G8" t="n">
-        <v>6067.5</v>
+        <v>3.185</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7086.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL7875</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>AC9250</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1000</v>
+          <t>FL3405</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.427</v>
+        <v>890</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45778</v>
       </c>
       <c r="G9" t="n">
-        <v>12013.65</v>
+        <v>2.269</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2928.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL6369</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>AC9250</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1000</v>
+          <t>FL3368</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.427</v>
+        <v>890</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45839</v>
       </c>
       <c r="G10" t="n">
-        <v>8931.360000000001</v>
+        <v>2.885</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12709.87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL7466</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>AC9250</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1000</v>
+          <t>FL3339</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D11" t="n">
+        <v>890</v>
+      </c>
+      <c r="E11" t="n">
         <v>3.68</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.427</v>
+      <c r="F11" s="2" t="n">
+        <v>45839</v>
       </c>
       <c r="G11" t="n">
-        <v>8931.360000000001</v>
+        <v>2.885</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9448.950000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FL3108</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>AC9250</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1000</v>
+          <t>FL3327</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D12" t="n">
+        <v>890</v>
+      </c>
+      <c r="E12" t="n">
         <v>2.5</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.427</v>
+      <c r="F12" s="2" t="n">
+        <v>45839</v>
       </c>
       <c r="G12" t="n">
-        <v>6067.5</v>
+        <v>2.885</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6419.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FL4736</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>AC9250</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1000</v>
+          <t>FL3222</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45801</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.427</v>
+        <v>890</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>45778</v>
       </c>
       <c r="G13" t="n">
-        <v>3519.15</v>
+        <v>2.269</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5048.53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FL5961</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>AC4709</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1350</v>
+          <t>FL2644</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.427</v>
+        <v>890</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45778</v>
       </c>
       <c r="G14" t="n">
-        <v>23754.26</v>
+        <v>2.269</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5048.53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FL2734</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>AC4709</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1350</v>
+          <t>FL2222</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.427</v>
+        <v>890</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45839</v>
       </c>
       <c r="G15" t="n">
-        <v>23754.26</v>
+        <v>2.885</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6419.13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FL1013</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>AC4709</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1350</v>
+          <t>FL2193</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45836</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="E16" s="2" t="n">
+        <v>890</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>45809</v>
       </c>
-      <c r="F16" t="n">
-        <v>2.427</v>
-      </c>
       <c r="G16" t="n">
-        <v>23754.26</v>
+        <v>3.185</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10431.51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FL5705</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>AC7421</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>890</v>
+          <t>FL2093</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>45839</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3.409</v>
+        <v>890</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>45809</v>
       </c>
       <c r="G17" t="n">
-        <v>6159.04</v>
+        <v>3.185</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7086.63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FL1524</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>AC7421</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>890</v>
+          <t>FL1965</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.427</v>
+        <v>890</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45778</v>
       </c>
       <c r="G18" t="n">
-        <v>7948.91</v>
+        <v>2.269</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9996.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FL5421</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>AC7421</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>890</v>
+          <t>FL1842</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45858</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D19" t="n">
+        <v>890</v>
+      </c>
+      <c r="E19" t="n">
         <v>4.95</v>
       </c>
-      <c r="E19" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.427</v>
+      <c r="F19" s="2" t="n">
+        <v>45839</v>
       </c>
       <c r="G19" t="n">
-        <v>10692.15</v>
+        <v>2.885</v>
+      </c>
+      <c r="H19" t="n">
+        <v>12709.87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FL6133</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>AC7421</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>890</v>
+          <t>FL1780</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="E20" s="2" t="n">
+        <v>890</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>45809</v>
       </c>
-      <c r="F20" t="n">
-        <v>2.427</v>
-      </c>
       <c r="G20" t="n">
-        <v>10692.15</v>
+        <v>3.185</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5754.34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FL8299</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>AC7979</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>500</v>
+          <t>FL1503</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45798</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D21" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2.427</v>
+        <v>890</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45778</v>
       </c>
       <c r="G21" t="n">
-        <v>1759.58</v>
+        <v>2.269</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5048.53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FL5785</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>AC5682</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>790</v>
+          <t>FL1493</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45823</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D22" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>45839</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3.409</v>
+        <v>890</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>45809</v>
       </c>
       <c r="G22" t="n">
-        <v>3905.01</v>
+        <v>3.185</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5754.34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FL5235</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>AC5682</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>790</v>
+          <t>FL1464</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D23" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="E23" s="2" t="n">
+        <v>890</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>45809</v>
       </c>
-      <c r="F23" t="n">
-        <v>2.427</v>
-      </c>
       <c r="G23" t="n">
-        <v>9490.780000000001</v>
+        <v>3.185</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7086.63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FL5689</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>AC5682</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>790</v>
+          <t>FL1450</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45797</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D24" t="n">
+        <v>890</v>
+      </c>
+      <c r="E24" t="n">
         <v>2.03</v>
       </c>
-      <c r="E24" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2.427</v>
+      <c r="F24" s="2" t="n">
+        <v>45778</v>
       </c>
       <c r="G24" t="n">
-        <v>3892.18</v>
+        <v>2.269</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4099.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FL8121</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>AC5682</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>790</v>
+          <t>FL1443</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D25" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="E25" s="2" t="n">
+        <v>890</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>45809</v>
       </c>
-      <c r="F25" t="n">
-        <v>2.427</v>
-      </c>
       <c r="G25" t="n">
-        <v>2780.13</v>
+        <v>3.185</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7086.63</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FL1990</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>AC4686</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1350</v>
+          <t>FL1327</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45799</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>AC6692</t>
+        </is>
       </c>
       <c r="D26" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2.427</v>
+        <v>890</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45778</v>
       </c>
       <c r="G26" t="n">
-        <v>23754.26</v>
+        <v>2.269</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9996.08</v>
       </c>
     </row>
   </sheetData>
